--- a/pred_ohlcv/54_21/2019-11-21 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 CTXC ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>227842.3417742575</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>234947.6250742575</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1465004.361469496</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1596144.719269495</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1442884.504706585</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1466365.427703781</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1452437.784003781</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1452437.784003781</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>1626105.307666633</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>1626105.307666633</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>1626105.307666633</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>1615520.738666633</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>1598418.275966633</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1667229.01876277</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1783319.71666277</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1809756.82156277</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1782422.81836277</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1782432.81836277</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1766442.66396277</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1766442.66396277</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1766058.82196277</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1766055.82196277</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1742370.10756277</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1753008.89926277</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1753222.574476446</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1753222.574476446</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1752427.415876446</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1752427.415876446</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1760251.445576446</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1760251.445576446</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1760251.445576446</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1758282.481076446</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1758282.481076446</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1758292.481076446</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1758018.937676446</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1759977.726176446</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1755047.786576446</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1751105.264376446</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1756180.826976446</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1757177.479076446</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1754486.377476446</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>1645976.688676446</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1645979.688676446</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1645114.965176446</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1779931.12988831</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>1854580.889608141</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>1823619.929508141</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>1865660.386908141</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>1865660.386908141</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>1865654.386908141</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>1872294.308808141</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>1872294.308808141</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>1869442.220108141</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>1869445.220108141</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>1869445.220108141</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>1871853.119908141</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>1868394.465808141</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>1853390.790908141</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>1827613.559708141</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>1827613.559708141</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>1832228.340908141</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>1832228.340908141</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>1832228.340908141</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>1858360.380008141</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>1899900.352308141</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>1899900.352308141</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>1883580.862508141</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>1890833.944208141</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>1893125.623808141</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>1893125.623808141</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>1871633.819008141</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>1871633.819008141</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>1871633.819008141</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>1900860.580108141</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>1900851.580108141</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>1915810.303508141</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>1913551.027208141</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>1936560.792373687</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>1936560.792373687</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>1935587.892673687</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>1899872.756273687</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>1855266.043173687</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>1746625.785973687</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>1662959.320773687</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>1639621.229889928</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>1589497.146891763</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>1589497.146891763</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>1589497.146891763</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>1589497.146891763</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>1551635.937091763</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>1488976.843891763</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>1485184.004191763</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>1654001.585791763</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>1647838.943591763</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>1647838.943591763</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>1647838.943591763</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>1686129.736591763</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>1674158.942291763</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>1696279.231891763</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>1673499.781991763</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>1650422.678591763</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>1638971.561091763</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>1639471.561091763</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>1780974.878491763</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-21 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 CTXC ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>195678.3371742575</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>196777.3670860222</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>196291.3670860222</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>196291.3670860222</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>199885.9467860222</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>199885.9467860222</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>207979.3338860222</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>207979.3338860222</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>227842.3417742575</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>234947.6250742575</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1465004.361469496</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1596144.719269495</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1442884.504706585</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1466365.427703781</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1452437.784003781</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1452437.784003781</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1737315.923313947</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1725167.909913947</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1725167.909913947</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1618550.267013947</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1618550.267013947</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>1626105.307666633</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>1626105.307666633</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>1626105.307666633</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>1615520.738666633</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>1617551.460666633</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>1600878.619666633</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>1598418.275966633</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>1598418.275966633</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>1599227.580366633</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1667229.01876277</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1783319.71666277</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1782194.39486277</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1809756.82156277</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1782422.81836277</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1782432.81836277</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1766442.66396277</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1766442.66396277</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1766058.82196277</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1766055.82196277</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1742165.58756277</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1742370.10756277</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1753008.89926277</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1753222.574476446</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1753222.574476446</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1752427.415876446</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1752427.415876446</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1760251.445576446</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1760251.445576446</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1760251.445576446</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1758282.481076446</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1758282.481076446</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1758292.481076446</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1758018.937676446</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1759977.726176446</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1755047.786576446</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1751105.264376446</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1756180.826976446</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1757177.479076446</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1754486.377476446</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>1645976.688676446</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1645979.688676446</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1645114.965176446</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>1645120.965176446</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>1733758.78508831</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1779931.12988831</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>1854580.889608141</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>1823622.929508141</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>1823619.929508141</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>1865660.386908141</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>1865660.386908141</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>1865654.386908141</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>1872294.308808141</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>1872294.308808141</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>1869442.220108141</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>1869445.220108141</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>1869445.220108141</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>1871853.119908141</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>1868394.465808141</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>1853390.790908141</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>1847193.965408141</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>1827613.559708141</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>1827613.559708141</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>1832228.340908141</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>1832228.340908141</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>1832228.340908141</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>1842795.515008141</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>1858360.380008141</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>1899900.352308141</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>1899900.352308141</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>1883580.862508141</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>1890833.944208141</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>1893125.623808141</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>1893125.623808141</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>1871633.819008141</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>1871633.819008141</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>1871633.819008141</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>1900860.580108141</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>1900851.580108141</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>1900854.580108141</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>1915810.303508141</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>1913551.027208141</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>1934914.005173687</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>1936560.792373687</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>1936560.792373687</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>1935587.892673687</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>1899872.756273687</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>1855266.043173687</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>1746625.785973687</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>1662959.320773687</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>1617633.678073687</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>1639621.229889928</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>1589497.146891763</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>1589497.146891763</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>1589497.146891763</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>1589497.146891763</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>1551635.937091763</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>1488976.843891763</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>1485184.004191763</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>1654001.585791763</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>1647838.943591763</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>1647838.943591763</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>1647838.943591763</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>1686129.736591763</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>1674158.942291763</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>1696279.231891763</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>1673499.781991763</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>1650422.678591763</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>1638971.561091763</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>1639471.561091763</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>1780974.878491763</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
